--- a/biology/Médecine/Maladie_de_König/Maladie_de_König.xlsx
+++ b/biology/Médecine/Maladie_de_König/Maladie_de_König.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de König, ou ostéochondrite disséquante (OCD), est une altération pouvant conduire à une nécrose d'une zone de cartilage articulaire et de l'os sous-jacent[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de König, ou ostéochondrite disséquante (OCD), est une altération pouvant conduire à une nécrose d'une zone de cartilage articulaire et de l'os sous-jacent,.
 C'est un trouble articulaire dans lequel se forment des fissures dans le cartilage et dans l'os sous-condral. L'OCD est causée par une dépravation de sang dans l'os sous-chondral. Cet arrêt de perfusion entraine la mort du cartilage par un processus appelé nécrose avasculaire. 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie touche des personnes sportives d'environ 13 ans d'âge moyen et préférentiellement au niveau du genou (bilatérale dans 25 % des cas).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Classification anatomo-radiologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stade 1 : lacune
 1a : niche bien limitée, dense
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Signes fonctionnels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Douleur 80 % : mécanique, imprécise, profonde, absente au repos
 Boiterie
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Examen physique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hydarthrose (stade 3 et 4 car le cartilage est ouvert)
 Limitation des amplitudes articulaires en flexion et extension
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Examens paracliniques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Radiographies standards : face, profil, défilé fémoro-patellaire à 30°
 Arthrotomodensitométrie
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +699,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Poly-ostéochondrose des condyles fémoraux
 Fracture ostéochondrale</t>
@@ -690,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -708,7 +732,9 @@
           <t>Traitements conservateurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jusqu'au stade 3
 Repos sportif
@@ -723,7 +749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maladie_de_K%C3%B6nig</t>
+          <t>Maladie_de_König</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,13 +767,15 @@
           <t>Traitement chirurgical</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Stade 4, échec traitement conservateur, stade 2 après 15 ans
-Forage (ou « perforation ») du fragment[3]
+Forage (ou « perforation ») du fragment
 Fixation du fragment et greffe spongieuse
 Ablation du séquestre
-Greffes de cartilage[4]</t>
+Greffes de cartilage</t>
         </is>
       </c>
     </row>
